--- a/Base/Teams/Giants/QBs Target Depth Data.xlsx
+++ b/Base/Teams/Giants/QBs Target Depth Data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="D.Jones" sheetId="1" r:id="rId1"/>
-    <sheet name="M.Glennon" sheetId="2" r:id="rId2"/>
+    <sheet name="M.Glennon" sheetId="1" r:id="rId1"/>
+    <sheet name="D.Jones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/Base/Teams/Giants/QBs Target Depth Data.xlsx
+++ b/Base/Teams/Giants/QBs Target Depth Data.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="M.Glennon" sheetId="1" r:id="rId1"/>
     <sheet name="D.Jones" sheetId="2" r:id="rId2"/>
+    <sheet name="J.Fromm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Short Att</t>
   </si>
@@ -550,4 +551,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>